--- a/client/src/assets/images/skills/스킬내역.xlsx
+++ b/client/src/assets/images/skills/스킬내역.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="230">
   <si>
     <t>근접</t>
   </si>
@@ -585,9 +585,6 @@
   <si>
     <t>쿨타임</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>초기값</t>
@@ -1022,7 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1088,6 +1085,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1369,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1385,15 +1385,17 @@
     <col min="7" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="30.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="124.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="124.125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="103.75" customWidth="1"/>
+    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1">
+    <row r="1" spans="1:13" ht="17.25" thickBot="1">
       <c r="A1" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>84</v>
@@ -1408,7 +1410,7 @@
         <v>160</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>91</v>
@@ -1417,9 +1419,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>0</v>
@@ -1449,10 +1451,15 @@
         <f>"{"&amp;"id: '"&amp;A2&amp;"', name: '"&amp;D2&amp;"', type: '"&amp;B2&amp;"', attribute: '"&amp;C2&amp;"', hitCnt: '"&amp;E2&amp;"', cooldown: '"&amp;F2&amp;"', defaultValue: '"&amp;G2&amp;"'}"</f>
         <v>{id: 'S01', name: '트리플 플래쉬', type: '근접', attribute: '무', hitCnt: '3', cooldown: '5', defaultValue: '2'}</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="str">
+        <f>"INSERT INTO SKILL VALUES('"&amp;A2&amp;"','"&amp;D2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"');"</f>
+        <v>INSERT INTO SKILL VALUES('S01','트리플 플래쉬','근접','무','3','5','2');</v>
+      </c>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1480,10 +1487,14 @@
         <f t="shared" ref="J3:J66" si="0">"{"&amp;"id: '"&amp;A3&amp;"', name: '"&amp;D3&amp;"', type: '"&amp;B3&amp;"', attribute: '"&amp;C3&amp;"', hitCnt: '"&amp;E3&amp;"', cooldown: '"&amp;F3&amp;"', defaultValue: '"&amp;G3&amp;"'}"</f>
         <v>{id: 'S02', name: '파이어 봄', type: '근접', attribute: '불', hitCnt: '1', cooldown: '3', defaultValue: '3.5'}</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="1">"INSERT INTO SKILL VALUES('"&amp;A3&amp;"','"&amp;D3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"');"</f>
+        <v>INSERT INTO SKILL VALUES('S02','파이어 봄','근접','불','1','3','3.5');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -1511,10 +1522,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S03', name: '아쿠아 슬랩', type: '근접', attribute: '물', hitCnt: '2', cooldown: '2', defaultValue: '0.8'}</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S03','아쿠아 슬랩','근접','물','2','2','0.8');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -1542,10 +1557,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S04', name: '스톤 드롭', type: '근접', attribute: '땅', hitCnt: '1', cooldown: '4.5', defaultValue: '2'}</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S04','스톤 드롭','근접','땅','1','4.5','2');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -1573,10 +1592,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S05', name: '윈드 커터', type: '근접', attribute: '바람', hitCnt: '3', cooldown: '1.5', defaultValue: '0.3'}</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S05','윈드 커터','근접','바람','3','1.5','0.3');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -1604,10 +1627,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S06', name: '아이스 윙', type: '근접', attribute: '얼음', hitCnt: '1', cooldown: '4', defaultValue: '1.5'}</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S06','아이스 윙','근접','얼음','1','4','1.5');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
@@ -1635,10 +1662,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S07', name: '일렉트릭 쇼크', type: '근접', attribute: '번개', hitCnt: '3', cooldown: '3', defaultValue: '0.5'}</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S07','일렉트릭 쇼크','근접','번개','3','3','0.5');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -1666,10 +1697,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S08', name: '플랜트 엣지', type: '근접', attribute: '식물', hitCnt: '1', cooldown: '4', defaultValue: '1.75'}</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S08','플랜트 엣지','근접','식물','1','4','1.75');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -1699,10 +1734,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S09', name: '포이즌 스윙', type: '근접', attribute: '독', hitCnt: '1', cooldown: '1', defaultValue: '1.5'}</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S09','포이즌 스윙','근접','독','1','1','1.5');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -1732,10 +1771,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S10', name: '홀리 플래쉬', type: '근접', attribute: '빛', hitCnt: '7', cooldown: '5', defaultValue: '0.8'}</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S10','홀리 플래쉬','근접','빛','7','5','0.8');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -1763,10 +1806,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S11', name: '다크 운드', type: '근접', attribute: '어둠', hitCnt: '5', cooldown: '5', defaultValue: '0.5'}</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S11','다크 운드','근접','어둠','5','5','0.5');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -1794,10 +1841,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S12', name: '퍼니쉬먼트', type: '낙하', attribute: '무', hitCnt: '1', cooldown: '5', defaultValue: '4'}</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S12','퍼니쉬먼트','낙하','무','1','5','4');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>23</v>
@@ -1825,10 +1876,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S13', name: '메테오', type: '낙하', attribute: '불', hitCnt: '1', cooldown: '5', defaultValue: '5'}</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S13','메테오','낙하','불','1','5','5');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>23</v>
@@ -1856,10 +1911,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S14', name: '워터 존', type: '낙하', attribute: '물', hitCnt: '1', cooldown: '5', defaultValue: '4'}</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S14','워터 존','낙하','물','1','5','4');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>23</v>
@@ -1887,10 +1946,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S15', name: '락 필라', type: '낙하', attribute: '땅', hitCnt: '1', cooldown: '6', defaultValue: '4'}</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S15','락 필라','낙하','땅','1','6','4');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -1920,10 +1983,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S16', name: '윈드 토네이도', type: '낙하', attribute: '바람', hitCnt: '6', cooldown: '8', defaultValue: '1'}</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S16','윈드 토네이도','낙하','바람','6','8','1');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>23</v>
@@ -1953,10 +2020,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S17', name: '아이스 애로우', type: '낙하', attribute: '얼음', hitCnt: '6', cooldown: '4', defaultValue: '0.8'}</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S17','아이스 애로우','낙하','얼음','6','4','0.8');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>23</v>
@@ -1984,10 +2055,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S18', name: '일렉트릭 스톰', type: '낙하', attribute: '번개', hitCnt: '5', cooldown: '12', defaultValue: '0.75'}</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S18','일렉트릭 스톰','낙하','번개','5','12','0.75');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -2015,10 +2090,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S19', name: '데들리 루츠', type: '낙하', attribute: '식물', hitCnt: '3', cooldown: '4', defaultValue: '1'}</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S19','데들리 루츠','낙하','식물','3','4','1');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>23</v>
@@ -2046,10 +2125,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S20', name: '포이즌 스톰', type: '낙하', attribute: '독', hitCnt: '5', cooldown: '12', defaultValue: '0.7'}</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S20','포이즌 스톰','낙하','독','5','12','0.7');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>23</v>
@@ -2077,10 +2160,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S21', name: '저지먼트', type: '낙하', attribute: '빛', hitCnt: '3', cooldown: '3', defaultValue: '0.65'}</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S21','저지먼트','낙하','빛','3','3','0.65');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>23</v>
@@ -2108,10 +2195,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S22', name: '데스 존', type: '낙하', attribute: '어둠', hitCnt: '5', cooldown: '8', defaultValue: '0.5'}</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S22','데스 존','낙하','어둠','5','8','0.5');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>35</v>
@@ -2122,8 +2213,8 @@
       <c r="D24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>161</v>
+      <c r="E24" s="18">
+        <v>0</v>
       </c>
       <c r="F24" s="18">
         <v>10</v>
@@ -2139,12 +2230,16 @@
       </c>
       <c r="J24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S23', name: '버프 노말', type: '버프', attribute: '무', hitCnt: '-', cooldown: '10', defaultValue: '2.5'}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>{id: 'S23', name: '버프 노말', type: '버프', attribute: '무', hitCnt: '0', cooldown: '10', defaultValue: '2.5'}</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S23','버프 노말','버프','무','0','10','2.5');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
@@ -2155,8 +2250,8 @@
       <c r="D25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>161</v>
+      <c r="E25" s="18">
+        <v>0</v>
       </c>
       <c r="F25" s="18">
         <v>30</v>
@@ -2172,12 +2267,16 @@
       </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S24', name: '버프 파이어', type: '버프', attribute: '불', hitCnt: '-', cooldown: '30', defaultValue: '30'}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>{id: 'S24', name: '버프 파이어', type: '버프', attribute: '불', hitCnt: '0', cooldown: '30', defaultValue: '30'}</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S24','버프 파이어','버프','불','0','30','30');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>35</v>
@@ -2188,8 +2287,8 @@
       <c r="D26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>161</v>
+      <c r="E26" s="18">
+        <v>0</v>
       </c>
       <c r="F26" s="18">
         <v>30</v>
@@ -2205,12 +2304,16 @@
       </c>
       <c r="J26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S25', name: '버프 워터', type: '버프', attribute: '물', hitCnt: '-', cooldown: '30', defaultValue: '30'}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>{id: 'S25', name: '버프 워터', type: '버프', attribute: '물', hitCnt: '0', cooldown: '30', defaultValue: '30'}</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S25','버프 워터','버프','물','0','30','30');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
@@ -2221,8 +2324,8 @@
       <c r="D27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>161</v>
+      <c r="E27" s="18">
+        <v>0</v>
       </c>
       <c r="F27" s="18">
         <v>30</v>
@@ -2238,12 +2341,16 @@
       </c>
       <c r="J27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S26', name: '버프 그라운드', type: '버프', attribute: '땅', hitCnt: '-', cooldown: '30', defaultValue: '30'}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>{id: 'S26', name: '버프 그라운드', type: '버프', attribute: '땅', hitCnt: '0', cooldown: '30', defaultValue: '30'}</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S26','버프 그라운드','버프','땅','0','30','30');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>35</v>
@@ -2254,8 +2361,8 @@
       <c r="D28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>161</v>
+      <c r="E28" s="18">
+        <v>0</v>
       </c>
       <c r="F28" s="18">
         <v>30</v>
@@ -2271,12 +2378,16 @@
       </c>
       <c r="J28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S27', name: '버프 윈드', type: '버프', attribute: '바람', hitCnt: '-', cooldown: '30', defaultValue: '30'}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>{id: 'S27', name: '버프 윈드', type: '버프', attribute: '바람', hitCnt: '0', cooldown: '30', defaultValue: '30'}</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S27','버프 윈드','버프','바람','0','30','30');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>35</v>
@@ -2287,8 +2398,8 @@
       <c r="D29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>161</v>
+      <c r="E29" s="18">
+        <v>0</v>
       </c>
       <c r="F29" s="18">
         <v>30</v>
@@ -2304,12 +2415,16 @@
       </c>
       <c r="J29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S28', name: '버프 아이스', type: '버프', attribute: '얼음', hitCnt: '-', cooldown: '30', defaultValue: '30'}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>{id: 'S28', name: '버프 아이스', type: '버프', attribute: '얼음', hitCnt: '0', cooldown: '30', defaultValue: '30'}</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S28','버프 아이스','버프','얼음','0','30','30');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>35</v>
@@ -2320,8 +2435,8 @@
       <c r="D30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>161</v>
+      <c r="E30" s="18">
+        <v>0</v>
       </c>
       <c r="F30" s="18">
         <v>30</v>
@@ -2337,12 +2452,16 @@
       </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S29', name: '버프 일렉트릭', type: '버프', attribute: '번개', hitCnt: '-', cooldown: '30', defaultValue: '30'}</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>{id: 'S29', name: '버프 일렉트릭', type: '버프', attribute: '번개', hitCnt: '0', cooldown: '30', defaultValue: '30'}</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S29','버프 일렉트릭','버프','번개','0','30','30');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>35</v>
@@ -2353,8 +2472,8 @@
       <c r="D31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>161</v>
+      <c r="E31" s="18">
+        <v>0</v>
       </c>
       <c r="F31" s="18">
         <v>30</v>
@@ -2370,12 +2489,16 @@
       </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S30', name: '버프 플랜트', type: '버프', attribute: '식물', hitCnt: '-', cooldown: '30', defaultValue: '30'}</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>{id: 'S30', name: '버프 플랜트', type: '버프', attribute: '식물', hitCnt: '0', cooldown: '30', defaultValue: '30'}</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S30','버프 플랜트','버프','식물','0','30','30');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>35</v>
@@ -2386,8 +2509,8 @@
       <c r="D32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>161</v>
+      <c r="E32" s="18">
+        <v>0</v>
       </c>
       <c r="F32" s="18">
         <v>30</v>
@@ -2403,12 +2526,16 @@
       </c>
       <c r="J32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S31', name: '버프 포이즌', type: '버프', attribute: '독', hitCnt: '-', cooldown: '30', defaultValue: '30'}</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>{id: 'S31', name: '버프 포이즌', type: '버프', attribute: '독', hitCnt: '0', cooldown: '30', defaultValue: '30'}</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S31','버프 포이즌','버프','독','0','30','30');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>35</v>
@@ -2419,8 +2546,8 @@
       <c r="D33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="18" t="s">
-        <v>161</v>
+      <c r="E33" s="18">
+        <v>0</v>
       </c>
       <c r="F33" s="18">
         <v>30</v>
@@ -2436,12 +2563,16 @@
       </c>
       <c r="J33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S32', name: '버프 라이트', type: '버프', attribute: '빛', hitCnt: '-', cooldown: '30', defaultValue: '30'}</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>{id: 'S32', name: '버프 라이트', type: '버프', attribute: '빛', hitCnt: '0', cooldown: '30', defaultValue: '30'}</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S32','버프 라이트','버프','빛','0','30','30');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>35</v>
@@ -2452,8 +2583,8 @@
       <c r="D34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="18" t="s">
-        <v>161</v>
+      <c r="E34" s="18">
+        <v>0</v>
       </c>
       <c r="F34" s="18">
         <v>30</v>
@@ -2469,12 +2600,16 @@
       </c>
       <c r="J34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S33', name: '버프 다크니스', type: '버프', attribute: '어둠', hitCnt: '-', cooldown: '30', defaultValue: '30'}</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>{id: 'S33', name: '버프 다크니스', type: '버프', attribute: '어둠', hitCnt: '0', cooldown: '30', defaultValue: '30'}</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S33','버프 다크니스','버프','어둠','0','30','30');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>47</v>
@@ -2502,10 +2637,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S34', name: '파워 스트라이크', type: '범위', attribute: '무', hitCnt: '2', cooldown: '1.5', defaultValue: '0.6'}</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S34','파워 스트라이크','범위','무','2','1.5','0.6');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>47</v>
@@ -2533,10 +2672,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S35', name: '파이어 불릿', type: '범위', attribute: '불', hitCnt: '3', cooldown: '4', defaultValue: '1.5'}</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S35','파이어 불릿','범위','불','3','4','1.5');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>47</v>
@@ -2564,10 +2707,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S36', name: '웨일 웨이브', type: '범위', attribute: '물', hitCnt: '3', cooldown: '8', defaultValue: '1.5'}</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S36','웨일 웨이브','범위','물','3','8','1.5');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>47</v>
@@ -2595,10 +2742,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S37', name: '불도즈', type: '범위', attribute: '땅', hitCnt: '3', cooldown: '6', defaultValue: '2'}</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S37','불도즈','범위','땅','3','6','2');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>47</v>
@@ -2626,10 +2777,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S38', name: '윈드 허리케인', type: '범위', attribute: '바람', hitCnt: '3', cooldown: '6', defaultValue: '0.5'}</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S38','윈드 허리케인','범위','바람','3','6','0.5');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>47</v>
@@ -2657,10 +2812,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S39', name: '아이스 에이지', type: '범위', attribute: '얼음', hitCnt: '2', cooldown: '10', defaultValue: '3'}</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S39','아이스 에이지','범위','얼음','2','10','3');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>47</v>
@@ -2688,10 +2847,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S40', name: '라이트닝 체인', type: '범위', attribute: '번개', hitCnt: '5', cooldown: '2', defaultValue: '0.4'}</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S40','라이트닝 체인','범위','번개','5','2','0.4');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>47</v>
@@ -2719,10 +2882,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S41', name: '블루밍', type: '범위', attribute: '식물', hitCnt: '3', cooldown: '7', defaultValue: '1'}</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S41','블루밍','범위','식물','3','7','1');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>47</v>
@@ -2750,10 +2917,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S42', name: '포이즌 봄', type: '범위', attribute: '독', hitCnt: '1', cooldown: '6', defaultValue: '6'}</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S42','포이즌 봄','범위','독','1','6','6');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>47</v>
@@ -2781,10 +2952,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S43', name: '디바인 시피어', type: '범위', attribute: '빛', hitCnt: '1', cooldown: '2', defaultValue: '2'}</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S43','디바인 시피어','범위','빛','1','2','2');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>47</v>
@@ -2814,10 +2989,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S44', name: '보이드', type: '범위', attribute: '어둠', hitCnt: '3', cooldown: '1.8', defaultValue: '0.35'}</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S44','보이드','범위','어둠','3','1.8','0.35');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>59</v>
@@ -2828,8 +3007,8 @@
       <c r="D46" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="18" t="s">
-        <v>161</v>
+      <c r="E46" s="18">
+        <v>0</v>
       </c>
       <c r="F46" s="18">
         <v>10</v>
@@ -2845,12 +3024,16 @@
       </c>
       <c r="J46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S45', name: '실드 노말', type: '실드', attribute: '무', hitCnt: '-', cooldown: '10', defaultValue: '25'}</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>{id: 'S45', name: '실드 노말', type: '실드', attribute: '무', hitCnt: '0', cooldown: '10', defaultValue: '25'}</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S45','실드 노말','실드','무','0','10','25');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>59</v>
@@ -2861,8 +3044,8 @@
       <c r="D47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="18" t="s">
-        <v>161</v>
+      <c r="E47" s="18">
+        <v>0</v>
       </c>
       <c r="F47" s="18">
         <v>10</v>
@@ -2878,12 +3061,16 @@
       </c>
       <c r="J47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S46', name: '실드 파이어', type: '실드', attribute: '불', hitCnt: '-', cooldown: '10', defaultValue: '50'}</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>{id: 'S46', name: '실드 파이어', type: '실드', attribute: '불', hitCnt: '0', cooldown: '10', defaultValue: '50'}</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S46','실드 파이어','실드','불','0','10','50');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>59</v>
@@ -2894,8 +3081,8 @@
       <c r="D48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>161</v>
+      <c r="E48" s="18">
+        <v>0</v>
       </c>
       <c r="F48" s="18">
         <v>10</v>
@@ -2911,12 +3098,16 @@
       </c>
       <c r="J48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S47', name: '실드 워터', type: '실드', attribute: '물', hitCnt: '-', cooldown: '10', defaultValue: '50'}</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>{id: 'S47', name: '실드 워터', type: '실드', attribute: '물', hitCnt: '0', cooldown: '10', defaultValue: '50'}</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S47','실드 워터','실드','물','0','10','50');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>59</v>
@@ -2927,8 +3118,8 @@
       <c r="D49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="18" t="s">
-        <v>161</v>
+      <c r="E49" s="18">
+        <v>0</v>
       </c>
       <c r="F49" s="18">
         <v>10</v>
@@ -2944,12 +3135,16 @@
       </c>
       <c r="J49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S48', name: '실드 그라운드', type: '실드', attribute: '땅', hitCnt: '-', cooldown: '10', defaultValue: '50'}</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>{id: 'S48', name: '실드 그라운드', type: '실드', attribute: '땅', hitCnt: '0', cooldown: '10', defaultValue: '50'}</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S48','실드 그라운드','실드','땅','0','10','50');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>59</v>
@@ -2960,8 +3155,8 @@
       <c r="D50" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="18" t="s">
-        <v>161</v>
+      <c r="E50" s="18">
+        <v>0</v>
       </c>
       <c r="F50" s="18">
         <v>10</v>
@@ -2977,12 +3172,16 @@
       </c>
       <c r="J50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S49', name: '실드 윈드', type: '실드', attribute: '바람', hitCnt: '-', cooldown: '10', defaultValue: '50'}</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>{id: 'S49', name: '실드 윈드', type: '실드', attribute: '바람', hitCnt: '0', cooldown: '10', defaultValue: '50'}</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S49','실드 윈드','실드','바람','0','10','50');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>59</v>
@@ -2993,8 +3192,8 @@
       <c r="D51" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="18" t="s">
-        <v>161</v>
+      <c r="E51" s="18">
+        <v>0</v>
       </c>
       <c r="F51" s="18">
         <v>10</v>
@@ -3010,12 +3209,16 @@
       </c>
       <c r="J51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S50', name: '실드 아이스', type: '실드', attribute: '얼음', hitCnt: '-', cooldown: '10', defaultValue: '50'}</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>{id: 'S50', name: '실드 아이스', type: '실드', attribute: '얼음', hitCnt: '0', cooldown: '10', defaultValue: '50'}</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S50','실드 아이스','실드','얼음','0','10','50');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>59</v>
@@ -3026,8 +3229,8 @@
       <c r="D52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="18" t="s">
-        <v>161</v>
+      <c r="E52" s="18">
+        <v>0</v>
       </c>
       <c r="F52" s="18">
         <v>10</v>
@@ -3043,12 +3246,16 @@
       </c>
       <c r="J52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S51', name: '실드 일렉트릭', type: '실드', attribute: '번개', hitCnt: '-', cooldown: '10', defaultValue: '50'}</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>{id: 'S51', name: '실드 일렉트릭', type: '실드', attribute: '번개', hitCnt: '0', cooldown: '10', defaultValue: '50'}</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S51','실드 일렉트릭','실드','번개','0','10','50');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
@@ -3059,8 +3266,8 @@
       <c r="D53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="18" t="s">
-        <v>161</v>
+      <c r="E53" s="18">
+        <v>0</v>
       </c>
       <c r="F53" s="18">
         <v>10</v>
@@ -3076,12 +3283,16 @@
       </c>
       <c r="J53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S52', name: '실드 플랜트', type: '실드', attribute: '식물', hitCnt: '-', cooldown: '10', defaultValue: '50'}</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>{id: 'S52', name: '실드 플랜트', type: '실드', attribute: '식물', hitCnt: '0', cooldown: '10', defaultValue: '50'}</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S52','실드 플랜트','실드','식물','0','10','50');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>59</v>
@@ -3092,8 +3303,8 @@
       <c r="D54" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="18" t="s">
-        <v>161</v>
+      <c r="E54" s="18">
+        <v>0</v>
       </c>
       <c r="F54" s="18">
         <v>10</v>
@@ -3109,12 +3320,16 @@
       </c>
       <c r="J54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S53', name: '실드 포이즌', type: '실드', attribute: '독', hitCnt: '-', cooldown: '10', defaultValue: '50'}</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>{id: 'S53', name: '실드 포이즌', type: '실드', attribute: '독', hitCnt: '0', cooldown: '10', defaultValue: '50'}</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S53','실드 포이즌','실드','독','0','10','50');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
@@ -3125,8 +3340,8 @@
       <c r="D55" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="18" t="s">
-        <v>161</v>
+      <c r="E55" s="18">
+        <v>0</v>
       </c>
       <c r="F55" s="18">
         <v>10</v>
@@ -3142,12 +3357,16 @@
       </c>
       <c r="J55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S54', name: '실드 라이트', type: '실드', attribute: '빛', hitCnt: '-', cooldown: '10', defaultValue: '50'}</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>{id: 'S54', name: '실드 라이트', type: '실드', attribute: '빛', hitCnt: '0', cooldown: '10', defaultValue: '50'}</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S54','실드 라이트','실드','빛','0','10','50');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>59</v>
@@ -3158,8 +3377,8 @@
       <c r="D56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="18" t="s">
-        <v>161</v>
+      <c r="E56" s="18">
+        <v>0</v>
       </c>
       <c r="F56" s="18">
         <v>10</v>
@@ -3175,12 +3394,16 @@
       </c>
       <c r="J56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{id: 'S55', name: '실드 다크니스', type: '실드', attribute: '어둠', hitCnt: '-', cooldown: '10', defaultValue: '50'}</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>{id: 'S55', name: '실드 다크니스', type: '실드', attribute: '어둠', hitCnt: '0', cooldown: '10', defaultValue: '50'}</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S55','실드 다크니스','실드','어둠','0','10','50');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>71</v>
@@ -3208,10 +3431,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S56', name: '파이널 애로우', type: '투사체', attribute: '무', hitCnt: '1', cooldown: '2.5', defaultValue: '5'}</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S56','파이널 애로우','투사체','무','1','2.5','5');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>71</v>
@@ -3239,10 +3466,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S57', name: '플레임 볼', type: '투사체', attribute: '불', hitCnt: '1', cooldown: '1.5', defaultValue: '2'}</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S57','플레임 볼','투사체','불','1','1.5','2');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>71</v>
@@ -3270,10 +3501,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S58', name: '아쿠아 볼', type: '투사체', attribute: '물', hitCnt: '1', cooldown: '1.8', defaultValue: '2.2'}</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S58','아쿠아 볼','투사체','물','1','1.8','2.2');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>71</v>
@@ -3303,10 +3538,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S59', name: '머드 샷', type: '투사체', attribute: '땅', hitCnt: '4', cooldown: '2.5', defaultValue: '1'}</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S59','머드 샷','투사체','땅','4','2.5','1');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>71</v>
@@ -3334,10 +3573,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S60', name: '거스트 애로우', type: '투사체', attribute: '바람', hitCnt: '1', cooldown: '1', defaultValue: '1.3'}</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S60','거스트 애로우','투사체','바람','1','1','1.3');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>71</v>
@@ -3365,10 +3608,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S61', name: '아이시클 스피어', type: '투사체', attribute: '얼음', hitCnt: '3', cooldown: '6', defaultValue: '2'}</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S61','아이시클 스피어','투사체','얼음','3','6','2');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>71</v>
@@ -3396,10 +3643,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S62', name: '일렉트릭 샷', type: '투사체', attribute: '번개', hitCnt: '1', cooldown: '3', defaultValue: '3'}</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S62','일렉트릭 샷','투사체','번개','1','3','3');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>71</v>
@@ -3429,10 +3680,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S63', name: '로지 데스', type: '투사체', attribute: '식물', hitCnt: '3', cooldown: '3', defaultValue: '0.75'}</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S63','로지 데스','투사체','식물','3','3','0.75');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>71</v>
@@ -3460,10 +3715,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S64', name: '에시딕 볼', type: '투사체', attribute: '독', hitCnt: '1', cooldown: '1.5', defaultValue: '0.77'}</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S64','에시딕 볼','투사체','독','1','1.5','0.77');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>71</v>
@@ -3491,10 +3750,14 @@
         <f t="shared" si="0"/>
         <v>{id: 'S65', name: '레이저 빔', type: '투사체', attribute: '빛', hitCnt: '1', cooldown: '2', defaultValue: '2'}</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="17.25" thickBot="1">
+      <c r="K66" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SKILL VALUES('S65','레이저 빔','투사체','빛','1','2','2');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="17.25" thickBot="1">
       <c r="A67" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>71</v>
@@ -3519,8 +3782,12 @@
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="1" t="str">
-        <f t="shared" ref="J67" si="1">"{"&amp;"id: '"&amp;A67&amp;"', name: '"&amp;D67&amp;"', type: '"&amp;B67&amp;"', attribute: '"&amp;C67&amp;"', hitCnt: '"&amp;E67&amp;"', cooldown: '"&amp;F67&amp;"', defaultValue: '"&amp;G67&amp;"'}"</f>
+        <f t="shared" ref="J67" si="2">"{"&amp;"id: '"&amp;A67&amp;"', name: '"&amp;D67&amp;"', type: '"&amp;B67&amp;"', attribute: '"&amp;C67&amp;"', hitCnt: '"&amp;E67&amp;"', cooldown: '"&amp;F67&amp;"', defaultValue: '"&amp;G67&amp;"'}"</f>
         <v>{id: 'S66', name: '다크 블레싱', type: '투사체', attribute: '어둠', hitCnt: '1', cooldown: '2.5', defaultValue: '3'}</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67" si="3">"INSERT INTO SKILL VALUES('"&amp;A67&amp;"','"&amp;D67&amp;"','"&amp;B67&amp;"','"&amp;C67&amp;"','"&amp;E67&amp;"','"&amp;F67&amp;"','"&amp;G67&amp;"');"</f>
+        <v>INSERT INTO SKILL VALUES('S66','다크 블레싱','투사체','어둠','1','2.5','3');</v>
       </c>
     </row>
   </sheetData>
